--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>Tek</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H2">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.70725526385441</v>
+        <v>64.74848166666668</v>
       </c>
       <c r="N2">
-        <v>64.70725526385441</v>
+        <v>194.245445</v>
       </c>
       <c r="O2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="P2">
-        <v>0.9531014902815595</v>
+        <v>0.9402357523751964</v>
       </c>
       <c r="Q2">
-        <v>1065.473348654914</v>
+        <v>23.47887859369445</v>
       </c>
       <c r="R2">
-        <v>1065.473348654914</v>
+        <v>211.30990734325</v>
       </c>
       <c r="S2">
-        <v>0.8922756844890701</v>
+        <v>0.01852337296285018</v>
       </c>
       <c r="T2">
-        <v>0.8922756844890701</v>
+        <v>0.01852337296285018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +587,867 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H3">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18399863056452</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>3.18399863056452</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341096</v>
       </c>
       <c r="P3">
-        <v>0.04689850971844054</v>
+        <v>0.04731972144341097</v>
       </c>
       <c r="Q3">
-        <v>52.42790270097078</v>
+        <v>1.181633427627778</v>
       </c>
       <c r="R3">
-        <v>52.42790270097078</v>
+        <v>10.63470084865</v>
       </c>
       <c r="S3">
-        <v>0.0439055024960425</v>
+        <v>0.00093223518312321</v>
       </c>
       <c r="T3">
-        <v>0.0439055024960425</v>
+        <v>0.0009322351831232103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12247951851364</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H4">
-        <v>1.12247951851364</v>
+        <v>1.08785</v>
       </c>
       <c r="I4">
-        <v>0.06381881301488745</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J4">
-        <v>0.06381881301488745</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>64.70725526385441</v>
+        <v>0.023043</v>
       </c>
       <c r="N4">
-        <v>64.70725526385441</v>
+        <v>0.069129</v>
       </c>
       <c r="O4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="P4">
-        <v>0.9531014902815595</v>
+        <v>0.0003346156061777662</v>
       </c>
       <c r="Q4">
-        <v>72.6325687329105</v>
+        <v>0.008355775849999999</v>
       </c>
       <c r="R4">
-        <v>72.6325687329105</v>
+        <v>0.07520198265</v>
       </c>
       <c r="S4">
-        <v>0.06082580579248942</v>
+        <v>6.592186753974434E-06</v>
       </c>
       <c r="T4">
-        <v>0.06082580579248942</v>
+        <v>6.592186753974437E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3626166666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.08785</v>
+      </c>
+      <c r="I5">
+        <v>0.01970077495570336</v>
+      </c>
+      <c r="J5">
+        <v>0.01970077495570336</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.123247</v>
+      </c>
+      <c r="O5">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P5">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q5">
+        <v>0.01489713877222222</v>
+      </c>
+      <c r="R5">
+        <v>0.13407424895</v>
+      </c>
+      <c r="S5">
+        <v>1.175291470825684E-05</v>
+      </c>
+      <c r="T5">
+        <v>1.175291470825685E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3626166666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.08785</v>
+      </c>
+      <c r="I6">
+        <v>0.01970077495570336</v>
+      </c>
+      <c r="J6">
+        <v>0.01970077495570336</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.378567</v>
+      </c>
+      <c r="O6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P6">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q6">
+        <v>0.2875026789944444</v>
+      </c>
+      <c r="R6">
+        <v>2.58752411095</v>
+      </c>
+      <c r="S6">
+        <v>0.0002268217082677416</v>
+      </c>
+      <c r="T6">
+        <v>0.0002268217082677417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>16.677026</v>
+      </c>
+      <c r="H7">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J7">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N7">
+        <v>194.245445</v>
+      </c>
+      <c r="O7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P7">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q7">
+        <v>1079.812112215523</v>
+      </c>
+      <c r="R7">
+        <v>9718.30900993971</v>
+      </c>
+      <c r="S7">
+        <v>0.8519045066208102</v>
+      </c>
+      <c r="T7">
+        <v>0.8519045066208103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.677026</v>
+      </c>
+      <c r="H8">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J8">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N8">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P8">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q8">
+        <v>54.34425167537132</v>
+      </c>
+      <c r="R8">
+        <v>489.0982650783419</v>
+      </c>
+      <c r="S8">
+        <v>0.042874230051185</v>
+      </c>
+      <c r="T8">
+        <v>0.04287423005118501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.677026</v>
+      </c>
+      <c r="H9">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J9">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.023043</v>
+      </c>
+      <c r="N9">
+        <v>0.069129</v>
+      </c>
+      <c r="O9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P9">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q9">
+        <v>0.3842887101179999</v>
+      </c>
+      <c r="R9">
+        <v>3.458598391062</v>
+      </c>
+      <c r="S9">
+        <v>0.0003031798590602213</v>
+      </c>
+      <c r="T9">
+        <v>0.0003031798590602214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.677026</v>
+      </c>
+      <c r="H10">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J10">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.123247</v>
+      </c>
+      <c r="O10">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P10">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q10">
+        <v>0.6851311411406665</v>
+      </c>
+      <c r="R10">
+        <v>6.166180270265999</v>
+      </c>
+      <c r="S10">
+        <v>0.0005405258008881236</v>
+      </c>
+      <c r="T10">
+        <v>0.0005405258008881238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.677026</v>
+      </c>
+      <c r="H11">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J11">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.378567</v>
+      </c>
+      <c r="O11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P11">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q11">
+        <v>13.22247456724733</v>
+      </c>
+      <c r="R11">
+        <v>119.002271105226</v>
+      </c>
+      <c r="S11">
+        <v>0.01043170894740693</v>
+      </c>
+      <c r="T11">
+        <v>0.01043170894740693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="H5">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="I5">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="J5">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="N5">
-        <v>3.18399863056452</v>
-      </c>
-      <c r="O5">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="P5">
-        <v>0.04689850971844054</v>
-      </c>
-      <c r="Q5">
-        <v>3.573973249784152</v>
-      </c>
-      <c r="R5">
-        <v>3.573973249784152</v>
-      </c>
-      <c r="S5">
-        <v>0.002993007222398039</v>
-      </c>
-      <c r="T5">
-        <v>0.002993007222398039</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.099712</v>
+      </c>
+      <c r="I12">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J12">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>64.74848166666668</v>
+      </c>
+      <c r="N12">
+        <v>194.245445</v>
+      </c>
+      <c r="O12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="P12">
+        <v>0.9402357523751964</v>
+      </c>
+      <c r="Q12">
+        <v>88.48337575687114</v>
+      </c>
+      <c r="R12">
+        <v>796.3503818118401</v>
+      </c>
+      <c r="S12">
+        <v>0.069807872791536</v>
+      </c>
+      <c r="T12">
+        <v>0.06980787279153601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.099712</v>
+      </c>
+      <c r="I13">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J13">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.258629666666666</v>
+      </c>
+      <c r="N13">
+        <v>9.775888999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04731972144341096</v>
+      </c>
+      <c r="P13">
+        <v>0.04731972144341097</v>
+      </c>
+      <c r="Q13">
+        <v>4.453147715996445</v>
+      </c>
+      <c r="R13">
+        <v>40.078329443968</v>
+      </c>
+      <c r="S13">
+        <v>0.003513256209102746</v>
+      </c>
+      <c r="T13">
+        <v>0.003513256209102747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.099712</v>
+      </c>
+      <c r="I14">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J14">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.023043</v>
+      </c>
+      <c r="N14">
+        <v>0.069129</v>
+      </c>
+      <c r="O14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="P14">
+        <v>0.0003346156061777662</v>
+      </c>
+      <c r="Q14">
+        <v>0.031489887872</v>
+      </c>
+      <c r="R14">
+        <v>0.283408990848</v>
+      </c>
+      <c r="S14">
+        <v>2.484356036357038E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.484356036357039E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.099712</v>
+      </c>
+      <c r="I15">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J15">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04108233333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.123247</v>
+      </c>
+      <c r="O15">
+        <v>0.0005965711874118119</v>
+      </c>
+      <c r="P15">
+        <v>0.000596571187411812</v>
+      </c>
+      <c r="Q15">
+        <v>0.05614191165155556</v>
+      </c>
+      <c r="R15">
+        <v>0.505277204864</v>
+      </c>
+      <c r="S15">
+        <v>4.429247181543143E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.429247181543145E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.099712</v>
+      </c>
+      <c r="I16">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J16">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.7928556666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.378567</v>
+      </c>
+      <c r="O16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="P16">
+        <v>0.01151333938780296</v>
+      </c>
+      <c r="Q16">
+        <v>1.083493296967111</v>
+      </c>
+      <c r="R16">
+        <v>9.751439672704</v>
+      </c>
+      <c r="S16">
+        <v>0.0008548087321282894</v>
+      </c>
+      <c r="T16">
+        <v>0.0008548087321282897</v>
       </c>
     </row>
   </sheetData>
